--- a/comparison_results/PSO_PID_No_Disturbance_Test_4.xlsx
+++ b/comparison_results/PSO_PID_No_Disturbance_Test_4.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0370964205080553</v>
+        <v>0.03723046968554965</v>
       </c>
       <c r="C2" t="n">
-        <v>1.031031031031031</v>
+        <v>1.041041041041041</v>
       </c>
       <c r="D2" t="n">
-        <v>1.32963540278781</v>
+        <v>1.65624154260422</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.7007007007007007</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01584809019694544</v>
+        <v>0.005250801814237351</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0819452698854202</v>
+        <v>0.07387765909387106</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6069463900706321</v>
+        <v>0.5355561206034968</v>
       </c>
       <c r="I2" t="n">
-        <v>0.181670078645459</v>
+        <v>0.1827613502372386</v>
       </c>
       <c r="J2" t="n">
-        <v>11.4135843380879</v>
+        <v>10.98567190076442</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9629116491006151</v>
+        <v>0.9752316429862367</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1</v>
+        <v>5.222194365001624</v>
       </c>
       <c r="N2" t="n">
-        <v>0.02181646947775573</v>
+        <v>0.09356560885042807</v>
       </c>
       <c r="O2" t="n">
-        <v>1.74465677868739</v>
+        <v>1.128759009773693</v>
       </c>
       <c r="P2" t="n">
-        <v>7.537462409019285</v>
+        <v>2.243593061877778</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03196248559505942</v>
+        <v>0.05447500500084825</v>
       </c>
       <c r="R2" t="n">
-        <v>1.715844161117501</v>
+        <v>1.921642723328143</v>
       </c>
       <c r="S2" t="n">
-        <v>6.996709375782673</v>
+        <v>0.1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0129569906539803</v>
+        <v>0.09007063423021133</v>
       </c>
       <c r="U2" t="n">
-        <v>1.959279807862297</v>
+        <v>0.3600844589662848</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03811785225932518</v>
+        <v>0.07607009766409056</v>
       </c>
       <c r="C3" t="n">
-        <v>1.061061061061061</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="D3" t="n">
-        <v>1.531266809651499</v>
+        <v>5.855801251432369</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7107107107107107</v>
+        <v>0.5105105105105106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01199562220052183</v>
+        <v>0.001556280636161006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08003693907107148</v>
+        <v>0.05056583340802392</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5890379210651638</v>
+        <v>0.4497767850331176</v>
       </c>
       <c r="I3" t="n">
-        <v>0.183285265058463</v>
+        <v>0.1651795568423531</v>
       </c>
       <c r="J3" t="n">
-        <v>11.03474095060376</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9677632527368223</v>
+        <v>0.978665584494005</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1467951663067052</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07651878028542303</v>
+        <v>0.0996026255914752</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9585773178416055</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>9.34175320469614</v>
+        <v>0.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03152621228257906</v>
+        <v>0.09933104226561533</v>
       </c>
       <c r="R3" t="n">
         <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2320247009282464</v>
+        <v>9.853433448790224</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001000559925110989</v>
+        <v>0.001</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1008993003500927</v>
+        <v>0.8314988321507761</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03737021983799756</v>
+        <v>0.03736677484517968</v>
       </c>
       <c r="C4" t="n">
-        <v>1.081081081081081</v>
+        <v>1.011011011011011</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9368109431979077</v>
+        <v>1.734064709124428</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.6706706706706707</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01399779412377633</v>
+        <v>0.01396559164349623</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0836868107982492</v>
+        <v>0.0780394578245531</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6066185119187618</v>
+        <v>0.5892912406376456</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1841116491308722</v>
+        <v>0.1807818275555453</v>
       </c>
       <c r="J4" t="n">
-        <v>10.93726039403897</v>
+        <v>11.52936780007025</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9656902758769034</v>
+        <v>0.9648985564175739</v>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1</v>
+        <v>4.990809346499986</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02841491143197638</v>
+        <v>0.03246361719577239</v>
       </c>
       <c r="O4" t="n">
-        <v>1.092358298418169</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1</v>
+        <v>9.200066319121536</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1</v>
+        <v>0.002122889310251284</v>
       </c>
       <c r="R4" t="n">
-        <v>1.063383307755063</v>
+        <v>1.990632915713094</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1</v>
+        <v>3.243337724972072</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05821029559708096</v>
+        <v>0.01998007735126356</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1318927489039899</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0370891304315695</v>
+        <v>0.0377068201938601</v>
       </c>
       <c r="C5" t="n">
-        <v>1.031031031031031</v>
+        <v>1.071071071071071</v>
       </c>
       <c r="D5" t="n">
-        <v>1.359864158757218</v>
+        <v>1.09347675654865</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.7107107107107107</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01496857530304675</v>
+        <v>0.01658183515233591</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08082212867517391</v>
+        <v>0.08599224171556906</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6007666892419847</v>
+        <v>0.6213112253707078</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1817072318858589</v>
+        <v>0.1834518776642267</v>
       </c>
       <c r="J5" t="n">
-        <v>11.38391360820529</v>
+        <v>11.11359680727602</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9639599038149094</v>
+        <v>0.962571617649134</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1</v>
+        <v>5.433907900518591</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05822500009719527</v>
+        <v>0.09878392009881984</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1108732138270767</v>
+        <v>0.8873868022261895</v>
       </c>
       <c r="P5" t="n">
-        <v>10</v>
+        <v>9.993525635105405</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0149866182047875</v>
+        <v>0.07683619795675863</v>
       </c>
       <c r="R5" t="n">
-        <v>1.785716401209325</v>
+        <v>1.969642908943229</v>
       </c>
       <c r="S5" t="n">
-        <v>4.932273243596891</v>
+        <v>4.865339499911175</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06619838620721884</v>
+        <v>0.001</v>
       </c>
       <c r="U5" t="n">
-        <v>1.229625618564972</v>
+        <v>0.1326491600825818</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03780220590958894</v>
+        <v>0.03741728675951307</v>
       </c>
       <c r="C6" t="n">
         <v>1.061061061061061</v>
       </c>
       <c r="D6" t="n">
-        <v>1.324748225780814</v>
+        <v>1.058300655250632</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7107107107107107</v>
+        <v>0.7007007007007007</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01435361747020262</v>
+        <v>0.01744293725141747</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0824031530665271</v>
+        <v>0.08644821682004104</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6041434442622196</v>
+        <v>0.6250214008607803</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1831014750842137</v>
+        <v>0.1829703338466084</v>
       </c>
       <c r="J6" t="n">
-        <v>11.1185671087736</v>
+        <v>11.22143497675091</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9650408350455082</v>
+        <v>0.9614265218684542</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>7.427135846242578</v>
+        <v>0.1100756988788315</v>
       </c>
       <c r="N6" t="n">
         <v>0.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.662449188689272</v>
+        <v>0.1</v>
       </c>
       <c r="P6" t="n">
-        <v>4.681245684785161</v>
+        <v>0.4033979707292027</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05234494149249955</v>
+        <v>0.06453576328942826</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3148172489830527</v>
+        <v>0.1372928535521597</v>
       </c>
       <c r="S6" t="n">
-        <v>7.363515252019327</v>
+        <v>10</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03008071927022937</v>
+        <v>0.1</v>
       </c>
       <c r="U6" t="n">
-        <v>0.4015883568183923</v>
+        <v>0.2449782037121337</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03780907053495172</v>
+        <v>0.0373098355423773</v>
       </c>
       <c r="C7" t="n">
-        <v>1.101101101101101</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7593023053133363</v>
+        <v>1.716514645445244</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01751016218624166</v>
+        <v>0.007471904804727216</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08953352639420427</v>
+        <v>0.07417003718597603</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6348495689735867</v>
+        <v>0.5497538373646824</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1846894465331967</v>
+        <v>0.1821420636218313</v>
       </c>
       <c r="J7" t="n">
-        <v>10.92365303908062</v>
+        <v>11.13827919928738</v>
       </c>
       <c r="K7" t="n">
-        <v>0.961872506996679</v>
+        <v>0.9726775854593405</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>3.838279906241921</v>
+        <v>1.000862286897571</v>
       </c>
       <c r="N7" t="n">
-        <v>0.05671836985902984</v>
+        <v>0.06607818282467313</v>
       </c>
       <c r="O7" t="n">
-        <v>1.205548593594125</v>
+        <v>0.9751794136541977</v>
       </c>
       <c r="P7" t="n">
-        <v>3.794297890731867</v>
+        <v>0.4550536194756528</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08949494004354516</v>
+        <v>0.03869397555887366</v>
       </c>
       <c r="R7" t="n">
-        <v>1.845128365522191</v>
+        <v>0.1</v>
       </c>
       <c r="S7" t="n">
-        <v>8.200073868750909</v>
+        <v>0.1221859970020126</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001</v>
+        <v>0.09993892983701028</v>
       </c>
       <c r="U7" t="n">
-        <v>1.437878713959774</v>
+        <v>0.3175449228489721</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.07634443695019949</v>
+        <v>0.0372298387818044</v>
       </c>
       <c r="C8" t="n">
-        <v>2.292292292292292</v>
+        <v>1.071071071071071</v>
       </c>
       <c r="D8" t="n">
-        <v>5.231407035582714</v>
+        <v>0.9274720423063654</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5305305305305306</v>
+        <v>0.7107107107107107</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000204357137094523</v>
+        <v>0.01589770259056165</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0537878047225878</v>
+        <v>0.08509093289219753</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4551738424257963</v>
+        <v>0.6167141787840578</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1679257242289378</v>
+        <v>0.1834854138133158</v>
       </c>
       <c r="J8" t="n">
-        <v>14.2085177462286</v>
+        <v>11.09028673537064</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9807096619747081</v>
+        <v>0.9633689926955324</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>4.345376426692486</v>
+        <v>0.777124203996962</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1</v>
+        <v>0.05202558338490682</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1.641003292880426</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>0.9679790174004418</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01141237141006556</v>
+        <v>0.001</v>
       </c>
       <c r="R8" t="n">
-        <v>1.943076608372705</v>
+        <v>0.5497055782948999</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>3.751980411493942</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="U8" t="n">
-        <v>1.885052405406142</v>
+        <v>0.6765801294780062</v>
       </c>
     </row>
     <row r="9">
@@ -1000,55 +1000,55 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03771632959063614</v>
+        <v>0.03784282914347485</v>
       </c>
       <c r="C9" t="n">
-        <v>1.091091091091091</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8559825748441163</v>
+        <v>0.6583204501710016</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.7307307307307307</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01697312576583351</v>
+        <v>0.01757198515517333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0880271920244162</v>
+        <v>0.09034294933874058</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6287167932901196</v>
+        <v>0.6374028394860691</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1842915460016607</v>
+        <v>0.1851027768993275</v>
       </c>
       <c r="J9" t="n">
-        <v>10.97756251591896</v>
+        <v>10.85477011674829</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9623676456349235</v>
+        <v>0.9619260144431898</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>4.881975004449775</v>
+        <v>3.701299907474102</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04988536507854426</v>
+        <v>0.003264130685052868</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2888063036275409</v>
+        <v>1.126193569638936</v>
       </c>
       <c r="P9" t="n">
-        <v>10</v>
+        <v>2.857902124370097</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001040028302122309</v>
+        <v>0.09848305321792497</v>
       </c>
       <c r="R9" t="n">
-        <v>0.4116251543037465</v>
+        <v>0.1001833004866072</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1057,7 +1057,7 @@
         <v>0.001</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5481053936522704</v>
+        <v>0.8244908286584134</v>
       </c>
     </row>
     <row r="10">
@@ -1065,64 +1065,64 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.03735290793586958</v>
+        <v>0.03661440369615534</v>
       </c>
       <c r="C10" t="n">
-        <v>1.011011011011011</v>
+        <v>1.001001001001001</v>
       </c>
       <c r="D10" t="n">
-        <v>1.691764685124508</v>
+        <v>1.515420694735736</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6706706706706707</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01497215229836978</v>
+        <v>0.01492043711690279</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07925466702112202</v>
+        <v>0.07840601610333509</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5961558090141941</v>
+        <v>0.5927037483019439</v>
       </c>
       <c r="I10" t="n">
-        <v>0.180746715939728</v>
+        <v>0.1802797943588592</v>
       </c>
       <c r="J10" t="n">
-        <v>11.56217109516526</v>
+        <v>11.64789723130194</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9636889419600676</v>
+        <v>0.9636208285660066</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>2.287792722391803</v>
       </c>
       <c r="N10" t="n">
-        <v>0.06175297556039464</v>
+        <v>0.04576148889211318</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1</v>
+        <v>0.3974122055049605</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9675473220382338</v>
+        <v>0.266265711283793</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.00141149449481906</v>
+        <v>0.01871574922095898</v>
       </c>
       <c r="R10" t="n">
-        <v>0.537887845680572</v>
+        <v>1.822195205121922</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1396301212781996</v>
+        <v>4.213141592525506</v>
       </c>
       <c r="T10" t="n">
-        <v>0.06451213001549504</v>
+        <v>0.1</v>
       </c>
       <c r="U10" t="n">
-        <v>1.433608628121221</v>
+        <v>0.9388794003797978</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03737079351570598</v>
+        <v>0.03771825006696888</v>
       </c>
       <c r="C11" t="n">
-        <v>1.041041041041041</v>
+        <v>1.091091091091091</v>
       </c>
       <c r="D11" t="n">
-        <v>1.576768315010901</v>
+        <v>0.8590891888992092</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7007007007007007</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="F11" t="n">
-        <v>0.008856217395851969</v>
+        <v>0.01690949749493317</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07584842325444427</v>
+        <v>0.08793868369850823</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5618883668704383</v>
+        <v>0.6282845119160834</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1825394016189678</v>
+        <v>0.1842944594334674</v>
       </c>
       <c r="J11" t="n">
-        <v>11.09607350620627</v>
+        <v>10.97540401901437</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9711730999158952</v>
+        <v>0.9624411438849066</v>
       </c>
       <c r="L11" t="n">
         <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>5.745441170160826</v>
+        <v>2.44658800767967</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01656121208015161</v>
+        <v>0.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.187425959769095</v>
+        <v>1.201910229928793</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1</v>
+        <v>1.404823369436023</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.08099373108584082</v>
+        <v>0.003545709372388929</v>
       </c>
       <c r="R11" t="n">
-        <v>1.986990861075385</v>
+        <v>0.6331439292175606</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="T11" t="n">
-        <v>0.07503577768737886</v>
+        <v>0.001</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1</v>
+        <v>0.5607406402553287</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.03753582209496352</v>
+        <v>0.03777936028169789</v>
       </c>
       <c r="C12" t="n">
-        <v>1.071071071071071</v>
+        <v>1.061061061061061</v>
       </c>
       <c r="D12" t="n">
-        <v>1.0103371081708</v>
+        <v>1.299020180378485</v>
       </c>
       <c r="E12" t="n">
         <v>0.7107107107107107</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01694092960438063</v>
+        <v>0.01481627360923797</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08648894274889166</v>
+        <v>0.08295218511129145</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6240606267212223</v>
+        <v>0.607241790293495</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1834298777680122</v>
+        <v>0.1830797049270111</v>
       </c>
       <c r="J12" t="n">
-        <v>11.12676208513725</v>
+        <v>11.13381704353653</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9621502312295261</v>
+        <v>0.9645038329279646</v>
       </c>
       <c r="L12" t="n">
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>8.599774563430824</v>
+        <v>4.077136547637747</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05291571135317705</v>
+        <v>0.0255118683061193</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1157203449999342</v>
+        <v>0.1</v>
       </c>
       <c r="P12" t="n">
-        <v>5.319845350226316</v>
+        <v>7.049665651715126</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.001450607650685893</v>
+        <v>0.05819321562040326</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6717758786727103</v>
+        <v>0.2318898695255571</v>
       </c>
       <c r="S12" t="n">
-        <v>9.65372976641074</v>
+        <v>8.269044584741593</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="U12" t="n">
-        <v>0.5068770822167791</v>
+        <v>0.1000321159189178</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03796585319583898</v>
+        <v>0.07261059431113329</v>
       </c>
       <c r="C13" t="n">
-        <v>1.101101101101101</v>
+        <v>2.042042042042042</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8637399918702382</v>
+        <v>6.416786530595475</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.5105105105105106</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01638292949313311</v>
+        <v>0.0001898026873797809</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08793425923853251</v>
+        <v>0.04776426398942121</v>
       </c>
       <c r="H13" t="n">
-        <v>0.627144351395456</v>
+        <v>0.4223004490917149</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1847205957926306</v>
+        <v>0.1646847226036253</v>
       </c>
       <c r="J13" t="n">
-        <v>10.88964717440385</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>0.963159617132654</v>
+        <v>0.9807152980605347</v>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>5.856719639406756</v>
+        <v>2.374938367033976</v>
       </c>
       <c r="N13" t="n">
-        <v>0.094233055280238</v>
+        <v>0.02552814941693086</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.378317016396265</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01486124222501123</v>
+        <v>0.0181837552192501</v>
       </c>
       <c r="R13" t="n">
-        <v>1.993074027328881</v>
+        <v>0.1</v>
       </c>
       <c r="S13" t="n">
-        <v>0.148000148230064</v>
+        <v>0.7820395994871445</v>
       </c>
       <c r="T13" t="n">
-        <v>0.007701814875978812</v>
+        <v>0.1</v>
       </c>
       <c r="U13" t="n">
-        <v>1.366053984555132</v>
+        <v>1.933403967976637</v>
       </c>
     </row>
     <row r="14">
@@ -1325,49 +1325,49 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03724517427491122</v>
+        <v>0.03790433454771842</v>
       </c>
       <c r="C14" t="n">
-        <v>1.041041041041041</v>
+        <v>1.091091091091091</v>
       </c>
       <c r="D14" t="n">
-        <v>1.737974298202505</v>
+        <v>0.978886150263425</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7007007007007007</v>
+        <v>0.7207207207207207</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002896288358148316</v>
+        <v>0.01566794372582752</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07339634848179102</v>
+        <v>0.08623027088562212</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5205784608775977</v>
+        <v>0.6198952432283577</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1829495579060715</v>
+        <v>0.1843219794445086</v>
       </c>
       <c r="J14" t="n">
-        <v>10.91495089843297</v>
+        <v>10.93926628668676</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9778387172496071</v>
+        <v>0.9638604198914437</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.003184109398831</v>
+        <v>10</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1000003826955976</v>
+        <v>1.837153726480183</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
         <v>0.1</v>
@@ -1376,13 +1376,13 @@
         <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.25086395527571</v>
+        <v>0.1</v>
       </c>
       <c r="T14" t="n">
-        <v>0.1</v>
+        <v>0.0170400302977381</v>
       </c>
       <c r="U14" t="n">
-        <v>0.5746248389155421</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03773283370343593</v>
+        <v>0.03756497734054541</v>
       </c>
       <c r="C15" t="n">
-        <v>1.091091091091091</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8350969669713715</v>
+        <v>1.569937518917897</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7207207207207207</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01765131373521292</v>
+        <v>0.01440750229318656</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08914710921018457</v>
+        <v>0.08013682198445268</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6337662770143442</v>
+        <v>0.5970938926042102</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1843674683162627</v>
+        <v>0.1817281657311895</v>
       </c>
       <c r="J15" t="n">
-        <v>10.96596075180121</v>
+        <v>11.36577756995513</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9616436391648416</v>
+        <v>0.9646247541611584</v>
       </c>
       <c r="L15" t="n">
-        <v>4.987446839854918</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1</v>
+        <v>2.233674996949951</v>
       </c>
       <c r="N15" t="n">
-        <v>0.09402160252150303</v>
+        <v>0.09028026251096595</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1000123170411383</v>
+        <v>1.578507015433145</v>
       </c>
       <c r="P15" t="n">
-        <v>9.924373782622204</v>
+        <v>6.117738304660971</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.08044986882652122</v>
+        <v>0.08778173886582701</v>
       </c>
       <c r="R15" t="n">
-        <v>1.721750385337141</v>
+        <v>0.1</v>
       </c>
       <c r="S15" t="n">
-        <v>9.017949155628923</v>
+        <v>5.540055660404428</v>
       </c>
       <c r="T15" t="n">
-        <v>0.001</v>
+        <v>0.01279450956952486</v>
       </c>
       <c r="U15" t="n">
-        <v>1.59652682180275</v>
+        <v>1.654844443109948</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03704777383703624</v>
+        <v>0.03740002729616377</v>
       </c>
       <c r="C16" t="n">
-        <v>1.061061061061061</v>
+        <v>1.021021021021021</v>
       </c>
       <c r="D16" t="n">
-        <v>1.087675117237996</v>
+        <v>1.61238359784559</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7107107107107107</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01253828630589995</v>
+        <v>0.01454924511643991</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08040075844723607</v>
+        <v>0.079496665484021</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5920044580142833</v>
+        <v>0.595684755888333</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1831869789058478</v>
+        <v>0.181226689945789</v>
       </c>
       <c r="J16" t="n">
-        <v>11.06030729781522</v>
+        <v>11.46166365165971</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9671322707237784</v>
+        <v>0.9643241453144451</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7882223978878953</v>
+        <v>10</v>
       </c>
       <c r="N16" t="n">
-        <v>0.05250453423390446</v>
+        <v>0.03868824098547467</v>
       </c>
       <c r="O16" t="n">
-        <v>1.998811563980648</v>
+        <v>0.1000673584198374</v>
       </c>
       <c r="P16" t="n">
-        <v>0.1776800815446192</v>
+        <v>0.6091075548567917</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.001</v>
+        <v>0.05658723400198296</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1022071656348469</v>
+        <v>0.8961545599486177</v>
       </c>
       <c r="S16" t="n">
-        <v>3.214548453362553</v>
+        <v>0.6650122795509744</v>
       </c>
       <c r="T16" t="n">
-        <v>0.04736749412952663</v>
+        <v>0.08053742750383569</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1.999888681378579</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.03706113570678976</v>
+        <v>0.0701438630569762</v>
       </c>
       <c r="C17" t="n">
-        <v>1.061061061061061</v>
+        <v>1.891891891891892</v>
       </c>
       <c r="D17" t="n">
-        <v>1.119325935569293</v>
+        <v>6.944635795685983</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7107107107107107</v>
+        <v>0.5105105105105106</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01183406984620542</v>
+        <v>4.392067113795916e-06</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07969818544818683</v>
+        <v>0.04714051571407774</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5870242731279253</v>
+        <v>0.4199418953514844</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1832211155270086</v>
+        <v>0.1642948965440113</v>
       </c>
       <c r="J17" t="n">
-        <v>11.03797218770495</v>
+        <v>15</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9679375873319256</v>
+        <v>0.9902969528583164</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>8.921887776925475</v>
+        <v>0.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0519098581228632</v>
+        <v>0.001</v>
       </c>
       <c r="O17" t="n">
-        <v>1.447473818285916</v>
+        <v>0.3128698207950402</v>
       </c>
       <c r="P17" t="n">
-        <v>4.353454225581651</v>
+        <v>10</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.09657712703525226</v>
+        <v>0.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.758064254264482</v>
+        <v>1.628995997792286</v>
       </c>
       <c r="S17" t="n">
-        <v>3.082260482915229</v>
+        <v>5.959554104799818</v>
       </c>
       <c r="T17" t="n">
-        <v>0.05014930499984512</v>
+        <v>0.05051075131061716</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>1.204982977790861</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03688089120400134</v>
+        <v>0.03675060407888898</v>
       </c>
       <c r="C18" t="n">
-        <v>1.031031031031031</v>
+        <v>1.011011011011011</v>
       </c>
       <c r="D18" t="n">
-        <v>1.296401305118366</v>
+        <v>1.506829678646215</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.6806806806806807</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01445356866834473</v>
+        <v>0.01352432573815437</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08018839545167544</v>
+        <v>0.0775391231240721</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5970536150537019</v>
+        <v>0.5856447193102245</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1817269546811959</v>
+        <v>0.1808156935085674</v>
       </c>
       <c r="J18" t="n">
-        <v>11.36708573435061</v>
+        <v>11.51128484390546</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9645705052188649</v>
+        <v>0.9654317639502662</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>9.164405678549018</v>
+        <v>10</v>
       </c>
       <c r="N18" t="n">
-        <v>0.002624963959090518</v>
+        <v>0.05572005802225369</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5653678797253198</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>8.300957431719484</v>
+        <v>0.7699699535664718</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00516691713663978</v>
+        <v>0.06149358234371644</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1</v>
+        <v>1.96062980673757</v>
       </c>
       <c r="S18" t="n">
-        <v>3.923554754153619</v>
+        <v>4.041274731833006</v>
       </c>
       <c r="T18" t="n">
-        <v>0.05415132083194545</v>
+        <v>0.06083698677602371</v>
       </c>
       <c r="U18" t="n">
-        <v>0.7904319794476391</v>
+        <v>0.8105887601801554</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03745756566908979</v>
+        <v>0.03799882605162344</v>
       </c>
       <c r="C19" t="n">
-        <v>1.011011011011011</v>
+        <v>1.101101101101101</v>
       </c>
       <c r="D19" t="n">
-        <v>1.817928455401985</v>
+        <v>0.8549733030942974</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.7307307307307307</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01265054209947924</v>
+        <v>0.01704288330182997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07657894184984898</v>
+        <v>0.088857477061673</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5803659636848244</v>
+        <v>0.6311662304841443</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1808227840259367</v>
+        <v>0.1847125387745063</v>
       </c>
       <c r="J19" t="n">
-        <v>11.48930014783153</v>
+        <v>10.90707712461821</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9664654132591525</v>
+        <v>0.9624111962719031</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1</v>
+        <v>5.243211885674141</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06302021727041937</v>
+        <v>0.0858227834744479</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="P19" t="n">
-        <v>2.407054089264881</v>
+        <v>1.571256340386691</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.03771317029400397</v>
+        <v>0.02302256605426827</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1</v>
+        <v>0.1658152736550172</v>
       </c>
       <c r="S19" t="n">
-        <v>1.616133088314753</v>
+        <v>7.167092857428797</v>
       </c>
       <c r="T19" t="n">
-        <v>0.052312971988501</v>
+        <v>0.02390636506456126</v>
       </c>
       <c r="U19" t="n">
-        <v>1.957979236770913</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03793874074456548</v>
+        <v>0.07015118115162124</v>
       </c>
       <c r="C20" t="n">
-        <v>1.101101101101101</v>
+        <v>1.881881881881882</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8227414040013814</v>
+        <v>7.04365269428795</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7307307307307307</v>
+        <v>0.5105105105105106</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01721318214686312</v>
+        <v>2.757079927852179e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0891782135424419</v>
+        <v>0.04709654364002351</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6326774911457826</v>
+        <v>0.4207615720523363</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1847500128371762</v>
+        <v>0.1642279242820679</v>
       </c>
       <c r="J20" t="n">
-        <v>10.90779555619101</v>
+        <v>15</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9622242135482556</v>
+        <v>0.9922479133739553</v>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>4.105523033390315</v>
+        <v>9.999967127642199</v>
       </c>
       <c r="N20" t="n">
-        <v>0.001</v>
+        <v>0.002139017649176429</v>
       </c>
       <c r="O20" t="n">
-        <v>1.968520375580029</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>10</v>
+        <v>3.197689071323827</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05362698760268743</v>
+        <v>0.1</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1</v>
+        <v>1.28188736483307</v>
       </c>
       <c r="S20" t="n">
-        <v>0.8059209146865584</v>
+        <v>5.950444209892723</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1</v>
+        <v>0.05011072611511193</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1</v>
+        <v>1.203773907416148</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0373547237980261</v>
+        <v>0.03805254455484968</v>
       </c>
       <c r="C21" t="n">
-        <v>1.041041041041041</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="D21" t="n">
-        <v>1.319119411815795</v>
+        <v>0.7430450816523937</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.7307307307307307</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01580948406568691</v>
+        <v>0.01760183404808748</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08267033591170658</v>
+        <v>0.09038910932505399</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6094038050321635</v>
+        <v>0.6372166821052517</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1821311481086859</v>
+        <v>0.1851051355841662</v>
       </c>
       <c r="J21" t="n">
-        <v>11.32887709936</v>
+        <v>10.8550587678361</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9630896303635772</v>
+        <v>0.9618931060973706</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>8.369442857877232</v>
+        <v>9.739240510250003</v>
       </c>
       <c r="N21" t="n">
-        <v>0.002352747671009849</v>
+        <v>0.1</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4179461284084865</v>
+        <v>0.7782095895395698</v>
       </c>
       <c r="P21" t="n">
         <v>10</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1</v>
+        <v>0.08579152074361912</v>
       </c>
       <c r="R21" t="n">
-        <v>1.192809674802087</v>
+        <v>1.82137919906093</v>
       </c>
       <c r="S21" t="n">
-        <v>9.99942854609605</v>
+        <v>6.410281412435874</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1</v>
+        <v>0.06784674421390775</v>
       </c>
       <c r="U21" t="n">
-        <v>0.238057353548714</v>
+        <v>0.1878260802608313</v>
       </c>
     </row>
   </sheetData>
